--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964908.555643831</v>
+        <v>2962656.475932624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8568226.843312068</v>
+        <v>8568226.843312066</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>83.56741318567445</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>120.3577665219461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.77200357366343</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213223</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>396.8670041071136</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107959</v>
+        <v>148.4348925031072</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>199.6710892234277</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,16 +1187,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>88.89700561060579</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379416</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W4" t="n">
-        <v>377.0996507379416</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.60199849331</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.639481552899</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3737829461481</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>878.3737829461481</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>467.3878781565406</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>216.4463512838068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2249.271807195285</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1880.309290254874</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1522.043591648123</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1136.255339049879</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>725.2694342602715</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>310.196984105268</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259407</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2635.871647259407</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4993,19 +4993,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,19 +7023,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,19 +7491,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,19 +7728,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.413517661587885e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405257</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26451,10 +26451,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083977</v>
+        <v>-832389.9260083975</v>
       </c>
       <c r="C6" t="n">
         <v>496354.8197191951</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191952</v>
+        <v>496354.8197191949</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.0341333515</v>
+        <v>243458.2962079155</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407067</v>
+        <v>568870.758015271</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.4959407067</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="H6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.758015271</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="J6" t="n">
-        <v>351374.2935434291</v>
+        <v>351339.5556179932</v>
       </c>
       <c r="K6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="L6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="M6" t="n">
-        <v>483850.4680051947</v>
+        <v>483815.7300797591</v>
       </c>
       <c r="N6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="O6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="P6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.7580152714</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.308632556037</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.8801721341075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.2538046853648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.40832771011964</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>14.05472154633986</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754824</v>
+        <v>18.81192859552067</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,19 +27825,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>94.93667516389272</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.93497457133151</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.726213591460058e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,16 +32078,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>355.4083096598243</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,16 +35726,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,22 +37859,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
